--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-M-P.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-M-P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B1AE9-7A1F-4778-BBCA-0B6EAE54A76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C351E2-16C0-4BC3-A39B-FF905791C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" firstSheet="5" activeTab="13" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="36870" windowHeight="21360" firstSheet="1" activeTab="11" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -211,10 +211,11 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +575,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2868,7 +2869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2884,10 +2885,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -5105,7 +5106,7 @@
         <v>17534</v>
       </c>
       <c r="J65" s="6">
-        <v>0.23300000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
@@ -5378,9 +5379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD36F11-3276-42B3-980C-4435D657568F}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5396,10 +5397,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6294,7 +6295,7 @@
         <v>26458</v>
       </c>
       <c r="J38" s="6">
-        <v>0.69699999999999995</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="0"/>
@@ -7342,7 +7343,7 @@
       <c r="C69" s="8">
         <v>24291</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>252336</v>
       </c>
       <c r="E69" s="8"/>
@@ -7511,10 +7512,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -9832,7 +9833,7 @@
       <c r="B69" s="8">
         <v>4567</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>8805</v>
       </c>
       <c r="D69" s="8">
@@ -9994,7 +9995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5940C-7B4F-4F1D-A1F2-8936AB746101}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q69" sqref="Q69:V69"/>
     </sheetView>
@@ -10012,10 +10013,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11476,7 +11477,7 @@
       <c r="C45" s="8">
         <v>10235</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>499235</v>
       </c>
       <c r="E45" s="8"/>
@@ -12107,7 +12108,7 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>1160</v>
       </c>
       <c r="H63" s="8"/>
@@ -12280,7 +12281,7 @@
       <c r="C68" s="3">
         <v>19230</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>1271403</v>
       </c>
       <c r="E68" s="3"/>
@@ -12486,10 +12487,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -14134,7 +14135,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14150,10 +14151,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15426,8 +15427,8 @@
       <c r="I41" s="3">
         <v>22018</v>
       </c>
-      <c r="J41" s="6">
-        <v>0.89800000000000002</v>
+      <c r="J41" s="14">
+        <v>0.69799999999999995</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="0"/>
@@ -16482,7 +16483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16498,10 +16499,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -18189,7 +18190,7 @@
         <v>262389</v>
       </c>
       <c r="J53" s="6">
-        <v>9.9440000000000008</v>
+        <v>5.944</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="0"/>
@@ -18894,10 +18895,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -20617,7 +20618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20633,10 +20634,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -21421,7 +21422,7 @@
         <v>39800</v>
       </c>
       <c r="J25" s="6">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="0"/>
@@ -23125,7 +23126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23141,10 +23142,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -24891,8 +24892,8 @@
       <c r="I55" s="3">
         <v>21915</v>
       </c>
-      <c r="J55" s="6">
-        <v>0.40400000000000003</v>
+      <c r="J55" s="14">
+        <v>0.46400000000000002</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="0"/>
@@ -24956,7 +24957,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>21755</v>
       </c>
       <c r="J57" s="9">
@@ -25544,10 +25545,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -27098,7 +27099,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>1854</v>
       </c>
       <c r="J67" s="6">
@@ -27273,7 +27274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27289,10 +27290,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -28197,8 +28198,8 @@
       <c r="I28" s="3">
         <v>294678</v>
       </c>
-      <c r="J28" s="6">
-        <v>12.353999999999999</v>
+      <c r="J28" s="14">
+        <v>13.254</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="0"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-M-P.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-M-P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C351E2-16C0-4BC3-A39B-FF905791C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A697E-A7DF-4BDA-85C5-B2318F6656B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="36870" windowHeight="21360" firstSheet="1" activeTab="11" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" firstSheet="1" activeTab="12" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -142,8 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,10 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +577,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2885,10 +2887,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -5379,7 +5381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD36F11-3276-42B3-980C-4435D657568F}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
@@ -5397,10 +5399,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7494,14 +7496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5444DCF4-C38D-464E-9711-D3EA5FB79C6C}">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="22" max="22" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7512,10 +7515,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8472,8 +8475,8 @@
       <c r="I30" s="3">
         <v>14285</v>
       </c>
-      <c r="J30" s="6">
-        <v>0.83699999999999997</v>
+      <c r="J30" s="13">
+        <v>0.60899999999999999</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="0"/>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -8588,8 +8591,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8623,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8759,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8968,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9007,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -9959,20 +9963,19 @@
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>37265</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0.50900000000000001</v>
-      </c>
+      <c r="I72" s="12">
+        <v>43735</v>
+      </c>
+      <c r="J72" s="6"/>
       <c r="M72" s="2">
         <f t="shared" si="2"/>
         <v>1.9199999999982538</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>6470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R72" s="15"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
@@ -10013,10 +10016,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -12487,10 +12490,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -14135,7 +14138,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y24" sqref="Y24"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14151,10 +14154,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -14386,7 +14389,7 @@
         <v>10581</v>
       </c>
       <c r="J9" s="9">
-        <v>0.45902777777777781</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -15427,7 +15430,7 @@
       <c r="I41" s="3">
         <v>22018</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>0.69799999999999995</v>
       </c>
       <c r="M41" s="2">
@@ -16483,7 +16486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16499,10 +16502,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17713,7 +17716,7 @@
         <v>96615</v>
       </c>
       <c r="J39" s="9">
-        <v>5.4960000000000004</v>
+        <v>3.496</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -18895,10 +18898,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -20634,10 +20637,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -23142,10 +23145,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -24892,7 +24895,7 @@
       <c r="I55" s="3">
         <v>21915</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>0.46400000000000002</v>
       </c>
       <c r="M55" s="2">
@@ -25545,10 +25548,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -27270,11 +27273,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CECDA8-18B0-4CC6-86D0-91AB83EC3397}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27290,10 +27293,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -28198,7 +28201,7 @@
       <c r="I28" s="3">
         <v>294678</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>13.254</v>
       </c>
       <c r="M28" s="2">
@@ -28348,7 +28351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -28387,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -28423,7 +28426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -28459,7 +28462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -28495,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -28531,7 +28534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -28567,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -28591,8 +28594,8 @@
       <c r="I39" s="8">
         <v>537855</v>
       </c>
-      <c r="J39" s="9">
-        <v>29.460999999999999</v>
+      <c r="J39" s="13">
+        <v>19.460999999999999</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -28605,8 +28608,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="15"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -28640,7 +28648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -28664,8 +28672,8 @@
       <c r="I41" s="3">
         <v>600626</v>
       </c>
-      <c r="J41" s="6">
-        <v>27.878</v>
+      <c r="J41" s="13">
+        <v>19.041</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="0"/>
@@ -28676,7 +28684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -28712,7 +28720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -28748,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -28784,7 +28792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -28822,8 +28830,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="15"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -28859,7 +28872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -28895,7 +28908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
